--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3376934.849908831</v>
+        <v>3481114.484359903</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>271.5650062992344</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>357.5370704873366</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189239</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>91.83524374703769</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>81.46084344268529</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674902027</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>233.9232825284311</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>11.31173967923155</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>37.94425378507018</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>100.9068926882556</v>
+        <v>146.6525686002701</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.9824281355623</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>80.77366170817018</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>34.45703212904731</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>136.5667167289874</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.93222849083736</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>189.7956391420595</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2011,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>107.3741909183133</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>251.5502284016991</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>174.118230083101</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>187.2400442609681</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2716,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>81.88270281562022</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>60.66149661128517</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,13 +2845,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>134.7910873020739</v>
       </c>
       <c r="C31" t="n">
-        <v>23.41986852521177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>81.27859867330056</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>113.4877306469562</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>37.17792077063358</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,19 +3480,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>208.7327685259489</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3667,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>18.70843787977262</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576145</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>281.0162165800675</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1418.660964416653</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1049.698447476241</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>691.4327488694908</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>691.4327488694908</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392465</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>1418.660964416653</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031481</v>
@@ -4425,22 +4427,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
         <v>66.51211643218342</v>
@@ -4486,52 +4488,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>828.1241333464302</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>606.3575179159562</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>606.3575179159562</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>606.3575179159562</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W4" t="n">
-        <v>606.3575179159562</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X4" t="n">
-        <v>606.3575179159562</v>
+        <v>148.7957966773201</v>
       </c>
       <c r="Y4" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1879.82957821044</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1510.867061270029</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1152.601362663278</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>766.8131100650339</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>355.8272052754264</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>344.7951591608269</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250374</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>2266.429418274562</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>228.0547555205106</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C7" t="n">
-        <v>228.0547555205106</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D7" t="n">
-        <v>77.93811610817488</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>77.93811610817488</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>77.93811610817488</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>77.93811610817488</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>77.93811610817488</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>792.7290194998844</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>792.7290194998844</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877109</v>
+        <v>792.7290194998844</v>
       </c>
       <c r="V7" t="n">
-        <v>699.1203903877109</v>
+        <v>538.0445312939976</v>
       </c>
       <c r="W7" t="n">
-        <v>409.7032203507503</v>
+        <v>538.0445312939976</v>
       </c>
       <c r="X7" t="n">
-        <v>409.7032203507503</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.7032203507503</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4835,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3113.388998905705</v>
+        <v>3067.181245459225</v>
       </c>
       <c r="V8" t="n">
-        <v>2782.326111562134</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="W8" t="n">
-        <v>2782.326111562134</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="X8" t="n">
-        <v>2782.326111562134</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.887005818185</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="C10" t="n">
-        <v>920.887005818185</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>770.7703664058492</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>622.8572728234561</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>475.9673253255457</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>308.2644887002647</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>839.2974485372046</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424041</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>378.6527890600109</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>231.7628415621006</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>231.7628415621006</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5306,19 +5308,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>620.8230468926974</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2005.349778677406</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1716.274552021604</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1461.590063815717</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1172.172893778757</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>944.1833428807391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>2644.045655650153</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>3241.424143276705</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>3869.022106831312</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>4420.931837070599</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3161.37108304703</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>2992.434900119124</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>2842.318260706788</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>2842.318260706788</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>2695.428313208878</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>2528.232213923758</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>3860.426268812248</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>3571.009098775287</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>3343.01954787727</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>3343.01954787727</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2716.927329289434</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3314.305816915985</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>3941.903780470592</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>4457.571492023711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1257.824365564879</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1029.834814666861</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>809.0422355233313</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797243</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2567.280686761779</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3062.606292977538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3659.984780604089</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>3715.300272664238</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903525</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.570007809457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1016.58045691144</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6209,16 +6211,16 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>809.0422355233313</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C28" t="n">
-        <v>640.1060525954244</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2385.688844578962</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2202.834010233867</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1983.232545256808</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1694.157318601005</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1439.472830395119</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1439.472830395119</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.483279497101</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.6907003535711</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6454,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,16 +6469,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6555,13 +6557,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3047.140839595365</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741616</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.581883569135</v>
+        <v>1455.612352843495</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.789304425605</v>
+        <v>1234.819773699965</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3160.164713532174</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C34" t="n">
-        <v>2991.228530604267</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>2991.228530604267</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>2843.315437021874</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661312</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467151</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430191</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532174</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>3160.164713532174</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6926,13 +6928,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2876.560776129205</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>3473.939263755757</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>989.3306680894883</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C37" t="n">
-        <v>820.3944851615814</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D37" t="n">
-        <v>670.2778457492457</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>522.3647521668526</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y37" t="n">
-        <v>1170.979132919728</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7429,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7636,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289433</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>3809.631423131743</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>4437.22938668635</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>4457.571492023711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>114.158440889165</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.727996117236472</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.8997516910999</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,7 +23670,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>27.60981118522872</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>32.9205219279106</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>34.97276993489191</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>112.40476825349</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>99.28295407562291</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>66.73277020259214</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.713750098836513</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>45.04089287986341</v>
       </c>
       <c r="C31" t="n">
-        <v>143.8269525734161</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>98.55338150863673</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>31.93331737597502</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>77.45170586329527</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>127.7255247667966</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>5.50678175652348</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395385</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395385</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244625</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244628</v>
       </c>
-      <c r="D2" t="n">
-        <v>759463.6371244623</v>
-      </c>
       <c r="E2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="L2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="N2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="O2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.169719953081924e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>93596.74410405253</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26436,25 +26438,25 @@
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="J4" t="n">
         <v>14826.69604186741</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="K4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14826.69604186742</v>
-      </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186744</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26522,46 +26524,46 @@
         <v>-770811.7932685764</v>
       </c>
       <c r="C6" t="n">
+        <v>557932.9524590167</v>
+      </c>
+      <c r="D6" t="n">
         <v>557932.9524590172</v>
       </c>
-      <c r="D6" t="n">
-        <v>557932.9524590165</v>
-      </c>
       <c r="E6" t="n">
-        <v>305248.9170401257</v>
+        <v>305248.9170401251</v>
       </c>
       <c r="F6" t="n">
+        <v>630661.3788474808</v>
+      </c>
+      <c r="G6" t="n">
+        <v>630661.3788474811</v>
+      </c>
+      <c r="H6" t="n">
         <v>630661.378847481</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>630661.3788474811</v>
+      </c>
+      <c r="J6" t="n">
+        <v>413130.1764502035</v>
+      </c>
+      <c r="K6" t="n">
         <v>630661.378847481</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>630661.378847481</v>
+      </c>
+      <c r="M6" t="n">
+        <v>545606.3509119686</v>
+      </c>
+      <c r="N6" t="n">
+        <v>630661.3788474811</v>
+      </c>
+      <c r="O6" t="n">
         <v>630661.3788474808</v>
       </c>
-      <c r="I6" t="n">
-        <v>630661.3788474809</v>
-      </c>
-      <c r="J6" t="n">
-        <v>413130.1764502036</v>
-      </c>
-      <c r="K6" t="n">
-        <v>630661.3788474809</v>
-      </c>
-      <c r="L6" t="n">
-        <v>630661.3788474808</v>
-      </c>
-      <c r="M6" t="n">
-        <v>545606.3509119692</v>
-      </c>
-      <c r="N6" t="n">
-        <v>630661.3788474809</v>
-      </c>
-      <c r="O6" t="n">
-        <v>630661.3788474811</v>
-      </c>
       <c r="P6" t="n">
-        <v>630661.3788474806</v>
+        <v>630661.378847481</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26709,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,13 +26792,13 @@
         <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.462149941352405e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>135.3110394424771</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>28.70086816871702</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>97.9337815844042</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>137.1238099094095</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>303.9530049144603</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>60.68448185888934</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>85.04068073060654</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>151.8247715463717</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>150.0882792706464</v>
+        <v>104.3426033586319</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>1.772586778758466</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>137.8109916439246</v>
       </c>
     </row>
     <row r="11">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29521,13 +29523,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29575,10 +29577,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="30">
@@ -30001,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30049,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30472,10 +30474,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30511,10 +30513,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.54335762560769e-12</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30523,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>209.9499448422525</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7351844430274</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>332.9841464938401</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,10 +32320,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>555.177741663068</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>663.4727207607265</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>187.2159464875244</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>324.9782573297445</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33518,7 +33520,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>175.960367665998</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,7 +34216,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>398.1179220955534</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34375,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>163.1438255932933</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>71.39556506237828</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>199.0097390795098</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>520.876476316282</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>55.87423440419106</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>259.5635423156792</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38023,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>20.5475811488489</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3481114.484359903</v>
+        <v>3477101.874345909</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>360.7321472374587</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>357.5370704873366</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>58.28185552386401</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>81.46084344268529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.78083674902027</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>147.2077150633819</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657087</v>
       </c>
       <c r="H6" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>37.94425378507018</v>
+        <v>149.1816830357541</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222615</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>146.6525686002701</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5522128412696</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>80.77366170817018</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.45703212904731</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>15.51491006411133</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>189.7956391420595</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>251.5502284016991</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>81.88270281562022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>245.6198119699298</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134.7910873020739</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>81.27859867330056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>208.7327685259489</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E40" t="n">
-        <v>26.05480806223585</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576145</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>90.14863908058098</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>883.8708262827856</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>883.8708262827856</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>883.8708262827856</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>472.8849214931781</v>
       </c>
       <c r="G2" t="n">
         <v>108.5090151927147</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,10 +4348,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189674</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,34 +4427,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>739.2385409879457</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>570.3023580600388</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>420.1857186477031</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>272.27262506531</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>125.3826775673996</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>376.7853475753374</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>148.7957966773201</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1381.278680221569</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1381.278680221569</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1023.012981614819</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>637.2247290165742</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>226.2388242269666</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>215.2067781123672</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450753</v>
+        <v>1767.878520285691</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S7" t="n">
-        <v>792.7290194998844</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="T7" t="n">
-        <v>792.7290194998844</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="U7" t="n">
-        <v>792.7290194998844</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="V7" t="n">
-        <v>538.0445312939976</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W7" t="n">
-        <v>538.0445312939976</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X7" t="n">
-        <v>310.0549803959803</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959803</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1491.569348694474</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>764.3411331473114</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>378.5528805490672</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3067.181245459225</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>2736.118358115654</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2736.118358115654</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>657.6489837069648</v>
+        <v>518.4459618444156</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>349.5097789165087</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>199.393139504173</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>839.2974485372046</v>
+        <v>700.0944266746553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098242</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819173</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2431.291457252875</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2211.689992275817</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1922.614765620015</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1667.930277414128</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="14">
@@ -5272,28 +5272,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,19 +5305,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516144</v>
+        <v>746.8882603249859</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132773</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2356.04164637206</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2005.349778677406</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1716.274552021604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1461.590063815717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.172893778757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>944.1833428807391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,34 +5506,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5670,16 +5670,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192673</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,22 +5770,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,25 +5977,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,37 +6004,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6211,16 +6211,16 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1031.260321675049</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>862.3241387471426</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X28" t="n">
-        <v>1433.701365648819</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y28" t="n">
-        <v>1212.908786505289</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1683.601903741512</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.612352843495</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>1234.819773699965</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6688,34 +6688,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1833.665603928865</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1578.981115722978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,22 +7426,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>165.5113759375333</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>27.60981118522872</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.97276993489191</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>119.8635921600918</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>66.73277020259214</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>40.90318636666117</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.04089287986341</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.55338150863673</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>77.45170586329527</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E40" t="n">
-        <v>120.3791545843333</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>196.0358353086632</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395385</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395385</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244628</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="I2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.604713255</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.169719953081924e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
+        <v>14826.69604186742</v>
+      </c>
+      <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="J4" t="n">
-        <v>14826.69604186741</v>
-      </c>
       <c r="K4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685764</v>
+        <v>-770811.7932685763</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590167</v>
+        <v>557932.9524590166</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590172</v>
+        <v>557932.9524590166</v>
       </c>
       <c r="E6" t="n">
-        <v>305248.9170401251</v>
+        <v>304901.5377857691</v>
       </c>
       <c r="F6" t="n">
-        <v>630661.3788474808</v>
+        <v>630313.9995931237</v>
       </c>
       <c r="G6" t="n">
-        <v>630661.3788474811</v>
+        <v>630313.9995931238</v>
       </c>
       <c r="H6" t="n">
-        <v>630661.378847481</v>
+        <v>630313.9995931239</v>
       </c>
       <c r="I6" t="n">
-        <v>630661.3788474811</v>
+        <v>630313.9995931237</v>
       </c>
       <c r="J6" t="n">
-        <v>413130.1764502035</v>
+        <v>412782.7971958462</v>
       </c>
       <c r="K6" t="n">
-        <v>630661.378847481</v>
+        <v>630313.9995931238</v>
       </c>
       <c r="L6" t="n">
-        <v>630661.378847481</v>
+        <v>630313.9995931238</v>
       </c>
       <c r="M6" t="n">
-        <v>545606.3509119686</v>
+        <v>545258.9716576119</v>
       </c>
       <c r="N6" t="n">
-        <v>630661.3788474811</v>
+        <v>630313.9995931238</v>
       </c>
       <c r="O6" t="n">
-        <v>630661.3788474808</v>
+        <v>630313.9995931238</v>
       </c>
       <c r="P6" t="n">
-        <v>630661.378847481</v>
+        <v>630313.9995931239</v>
       </c>
     </row>
   </sheetData>
@@ -26709,25 +26709,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.462149941352405e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>50.18957841599473</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>28.70086816871702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351642</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>137.1238099094095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>303.9530049144603</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>147.4000493239386</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>151.8247715463717</v>
+        <v>40.58734229568776</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,13 +27833,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.87741491945</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>104.3426033586319</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>14.88174980529953</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>137.8109916439246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29523,13 +29523,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29577,10 +29577,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30474,10 +30474,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30513,10 +30513,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.54335762560769e-12</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>307.9814458135829</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>332.9841464938401</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,40 +32311,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>477.985332142731</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>169.4270660337088</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0097390795098</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318053</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3477101.874345909</v>
+        <v>3478862.404648694</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>360.7321472374587</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>8.276279573899178</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>58.28185552386401</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>100.2026903550092</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>147.2077150633819</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657087</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>149.1816830357541</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>20.95866062610927</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222615</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>95.92502041856297</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>131.5522128412696</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>146.2529838800239</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>142.4385057595945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>15.51491006411133</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>252.1248285323199</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>65.44930784064577</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>13.72582864853771</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>245.6198119699298</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>78.9105100867805</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>103.8784673763403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>90.14863908058098</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.833343223197</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>883.8708262827856</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>883.8708262827856</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>883.8708262827856</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>472.8849214931781</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4348,10 +4348,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263131</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.433183287319</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4430,7 +4430,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125857</v>
@@ -4439,16 +4439,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879457</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600388</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>420.1857186477031</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>272.27262506531</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>125.3826775673996</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181855</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221569</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221569</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="D5" t="n">
-        <v>1023.012981614819</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E5" t="n">
-        <v>637.2247290165742</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F5" t="n">
-        <v>226.2388242269666</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>215.2067781123672</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792697</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522582</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285691</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
@@ -4643,55 +4643,55 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>680.3679798527295</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>680.3679798527295</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U7" t="n">
-        <v>680.3679798527295</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V7" t="n">
-        <v>680.3679798527295</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W7" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694474</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754062</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473114</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490672</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>3118.421193117517</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995487</v>
+        <v>2765.652537847403</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758595</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228008</v>
@@ -4889,40 +4889,40 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.4459618444156</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C10" t="n">
-        <v>349.5097789165087</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>199.393139504173</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O10" t="n">
         <v>809.015235706886</v>
@@ -5001,13 +5001,13 @@
         <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>773.1567190706866</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>545.1671681726692</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.0944266746553</v>
+        <v>545.1671681726692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
         <v>779.6143379232838</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2431.291457252875</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2211.689992275817</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1922.614765620015</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1667.930277414128</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1150.52355647915</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.7309773356195</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5272,28 +5272,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,19 +5305,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249859</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1246.075525424376</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1018.085974526359</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>797.2933953828287</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5670,16 +5670,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2395.078540748843</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093041</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192673</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5779,7 +5779,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,64 +5977,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>107.6811364303332</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1252.64624922477</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.656698326753</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6454,61 +6454,61 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D31" t="n">
         <v>484.8112968429803</v>
@@ -6618,55 +6618,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7174,10 +7174,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>317.6151975578602</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7496,22 +7496,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>37.39347442234276</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>165.5113759375333</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393068</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>34.39816980427108</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>220.7351665485984</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.90318636666117</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>126.5688841976861</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>40.90318636666117</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>69.70496293143185</v>
+        <v>39.70888054695308</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>63.36835372228754</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395385</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395385</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="F2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405247</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186728</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685763</v>
+        <v>-770811.7932685764</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590166</v>
+        <v>557932.952459017</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590166</v>
+        <v>557932.9524590159</v>
       </c>
       <c r="E6" t="n">
-        <v>304901.5377857691</v>
+        <v>305214.1791146901</v>
       </c>
       <c r="F6" t="n">
-        <v>630313.9995931237</v>
+        <v>630626.6409220457</v>
       </c>
       <c r="G6" t="n">
-        <v>630313.9995931238</v>
+        <v>630626.6409220452</v>
       </c>
       <c r="H6" t="n">
-        <v>630313.9995931239</v>
+        <v>630626.6409220451</v>
       </c>
       <c r="I6" t="n">
-        <v>630313.9995931237</v>
+        <v>630626.640922045</v>
       </c>
       <c r="J6" t="n">
-        <v>412782.7971958462</v>
+        <v>413095.4385247676</v>
       </c>
       <c r="K6" t="n">
-        <v>630313.9995931238</v>
+        <v>630626.6409220451</v>
       </c>
       <c r="L6" t="n">
-        <v>630313.9995931238</v>
+        <v>630626.6409220451</v>
       </c>
       <c r="M6" t="n">
-        <v>545258.9716576119</v>
+        <v>545571.6129865333</v>
       </c>
       <c r="N6" t="n">
-        <v>630313.9995931238</v>
+        <v>630626.6409220449</v>
       </c>
       <c r="O6" t="n">
-        <v>630313.9995931238</v>
+        <v>630626.6409220455</v>
       </c>
       <c r="P6" t="n">
-        <v>630313.9995931239</v>
+        <v>630626.640922045</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022931</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.401455402293</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.18957841599473</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>361.4548211045699</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.7439527351642</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>254.4803512656737</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>147.4000493239386</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27709,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>40.58734229568776</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500599</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.87741491945</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>231.827238051572</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>14.88174980529953</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>140.2700144565671</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31618,7 +31618,7 @@
         <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970241</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
         <v>447.6103584002928</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,37 +32077,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>307.9814458135829</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.015579806724</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34216,34 +34216,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35266,7 +35266,7 @@
         <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859626</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>169.4270660337088</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236318053</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
